--- a/CameraTriggerPCB/CameraTrigger.xlsx
+++ b/CameraTriggerPCB/CameraTrigger.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="CameraTrigger" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
   <si>
     <t>Reference</t>
   </si>
@@ -260,13 +260,157 @@
   </si>
   <si>
     <t>http://www.fairchildsemi.com/ds/LM/LM7805.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282834-3 </t>
+  </si>
+  <si>
+    <t>282834-2</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Mouser PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-2828343 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-282834-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ1-3533NG </t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>490-SJ1-3533NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS1240P02BT </t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>KSA0A311LFTR</t>
+  </si>
+  <si>
+    <t>C&amp;J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611-KSA0A311LFT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">810-PS1240P02BT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">630-4N25-300E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4N25-300E </t>
+  </si>
+  <si>
+    <t>Broadcom / Avago</t>
+  </si>
+  <si>
+    <t>WP710A10SYCK</t>
+  </si>
+  <si>
+    <t>kingbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-WP710A10SYCK </t>
+  </si>
+  <si>
+    <t>MF1/4LCT52R472G</t>
+  </si>
+  <si>
+    <t>KOA</t>
+  </si>
+  <si>
+    <t>660-MF1/4LCT52R472G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF1/4DCT26A1001F </t>
+  </si>
+  <si>
+    <t>660-MF1/4DCT26A1001F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF1/4CCT52R2200F </t>
+  </si>
+  <si>
+    <t>koa</t>
+  </si>
+  <si>
+    <t>660-MF1/4CCT52R2200F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS11CP </t>
+  </si>
+  <si>
+    <t>NKK</t>
+  </si>
+  <si>
+    <t>633-AS11CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM7805CT </t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>926-LM7805CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-ESL107M016AC3AA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESL107M016AC3AA </t>
+  </si>
+  <si>
+    <t>kmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESL106M100AE3AA </t>
+  </si>
+  <si>
+    <t>kimet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-ESL106M100AE3AA </t>
+  </si>
+  <si>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>M20-7821242</t>
+  </si>
+  <si>
+    <t>855-M20-7821242</t>
+  </si>
+  <si>
+    <t>M20-7821642</t>
+  </si>
+  <si>
+    <t>855-M20-7821642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610-PN2222A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Semiconductor </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +546,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -700,7 +851,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -743,11 +894,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -781,6 +940,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1081,451 +1241,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="54" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13">
         <v>220</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
         <v>64</v>
       </c>
       <c r="B25">
         <v>220</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" t="s">
         <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" t="s">
         <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D20" r:id="rId1" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Harwin/M20-7821642?qs=sGAEpiMZZMs%252BGHln7q6pmzlZUuX%2F53qj2HDXPM2L4GM%3D"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CameraTriggerPCB/CameraTrigger.xlsx
+++ b/CameraTriggerPCB/CameraTrigger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>Reference</t>
   </si>
@@ -178,15 +178,6 @@
     <t>http://www.fairchildsemi.com/ds/PN/PN2222A.pdf</t>
   </si>
   <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>feather long</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x16_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>J10</t>
   </si>
   <si>
@@ -307,15 +298,6 @@
     <t xml:space="preserve">810-PS1240P02BT </t>
   </si>
   <si>
-    <t xml:space="preserve">630-4N25-300E </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4N25-300E </t>
-  </si>
-  <si>
-    <t>Broadcom / Avago</t>
-  </si>
-  <si>
     <t>WP710A10SYCK</t>
   </si>
   <si>
@@ -349,15 +331,9 @@
     <t>660-MF1/4CCT52R2200F</t>
   </si>
   <si>
-    <t xml:space="preserve">AS11CP </t>
-  </si>
-  <si>
     <t>NKK</t>
   </si>
   <si>
-    <t>633-AS11CP</t>
-  </si>
-  <si>
     <t xml:space="preserve">LM7805CT </t>
   </si>
   <si>
@@ -385,32 +361,62 @@
     <t xml:space="preserve">80-ESL106M100AE3AA </t>
   </si>
   <si>
-    <t>Harwin</t>
-  </si>
-  <si>
-    <t>M20-7821242</t>
-  </si>
-  <si>
-    <t>855-M20-7821242</t>
-  </si>
-  <si>
-    <t>M20-7821642</t>
-  </si>
-  <si>
-    <t>855-M20-7821642</t>
-  </si>
-  <si>
     <t xml:space="preserve">610-PN2222A </t>
   </si>
   <si>
     <t xml:space="preserve">Central Semiconductor </t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-2830 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">859-4N25 </t>
+  </si>
+  <si>
+    <t>Lite On</t>
+  </si>
+  <si>
+    <t>Lite on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4N25 </t>
+  </si>
+  <si>
+    <t>633-AS11BH</t>
+  </si>
+  <si>
+    <t>AS11BH</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Feather M0</t>
+  </si>
+  <si>
+    <t>485-3176</t>
+  </si>
+  <si>
+    <t>490-SJ1-2503A</t>
+  </si>
+  <si>
+    <t>SJ1-2503A</t>
+  </si>
+  <si>
+    <t>J2b</t>
+  </si>
+  <si>
+    <t>2.5 mm Camera Jack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,13 +552,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -851,7 +850,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -894,19 +893,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -940,7 +934,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1241,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,7 +1245,7 @@
     <col min="3" max="3" width="54" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1266,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1274,301 +1267,301 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>2830</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
@@ -1582,13 +1575,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
         <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1605,13 +1598,13 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1619,91 +1612,91 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -1711,22 +1704,22 @@
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -1734,25 +1727,25 @@
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
         <v>61</v>
       </c>
+      <c r="B22">
+        <v>220</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
@@ -1760,212 +1753,223 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>220</v>
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
         <v>119</v>
       </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
       <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="D31">
+        <v>3176</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Harwin/M20-7821642?qs=sGAEpiMZZMs%252BGHln7q6pmzlZUuX%2F53qj2HDXPM2L4GM%3D"/>
-  </hyperlinks>
+  <sortState ref="A2:G31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>